--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail5 Features.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,29 +3385,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,115 +3426,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3553,72 +3541,66 @@
         <v>1.254117542352488e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.885945969577305</v>
+        <v>7.938110581911974e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.643980591242942</v>
+        <v>3.355669780055836e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.938110581911974e-07</v>
+        <v>-0.08619692845783072</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.355669780055836e-06</v>
+        <v>0.2894144418632775</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08619692845783072</v>
+        <v>0.09096959997954278</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2894144418632775</v>
+        <v>1.705689146205458</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09096959997954278</v>
+        <v>1.803723469504925</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.618193347554383</v>
+        <v>3.986351107741459</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.803723469504925</v>
+        <v>2.841488819882574e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.986351107741459</v>
+        <v>71086926.39739731</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.841488819882574e-15</v>
+        <v>1.60146582489344e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>71086926.39739731</v>
+        <v>14.35904066674451</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.60146582489344e-06</v>
+        <v>0.0001356124909358681</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>14.35904066674451</v>
+        <v>8.533065372818026</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001356124909358681</v>
+        <v>1.233413710645595</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.533065372818026</v>
+        <v>0.009874380056529904</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.233413710645595</v>
+        <v>2.818079037070778</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009874380056529904</v>
+        <v>0.9566235620333763</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.818079037070778</v>
+        <v>1.770227322503484</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9566235620333763</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.770227322503484</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2026368905758384</v>
       </c>
     </row>
@@ -3633,72 +3615,66 @@
         <v>9.829334511829167e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.38367303182309</v>
+        <v>5.943460281435408e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.944632805306638</v>
+        <v>3.346700186368578e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.943460281435408e-07</v>
+        <v>-0.07480673755652478</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.346700186368578e-06</v>
+        <v>0.2711898670839406</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07480673755652478</v>
+        <v>0.07895049919890559</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2711898670839406</v>
+        <v>1.713840386252722</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07895049919890559</v>
+        <v>1.629979593816014</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.627222381738477</v>
+        <v>3.867748735604041</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.629979593816014</v>
+        <v>3.018426056049518e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.867748735604041</v>
+        <v>68290708.16511707</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.018426056049518e-15</v>
+        <v>1.676519894977163e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>68290708.16511707</v>
+        <v>14.07679460373378</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.676519894977163e-06</v>
+        <v>0.0001364889772336422</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>14.07679460373378</v>
+        <v>8.791246801992196</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001364889772336422</v>
+        <v>1.23471609630438</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.791246801992196</v>
+        <v>0.01054868986978308</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.23471609630438</v>
+        <v>2.734503279751859</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01054868986978308</v>
+        <v>0.956370351543059</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.734503279751859</v>
+        <v>1.759201175093498</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.956370351543059</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.759201175093498</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2060280242363474</v>
       </c>
     </row>
@@ -3713,72 +3689,66 @@
         <v>8.048345657935866e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.807992864336766</v>
+        <v>4.522477352249361e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.120607425443403</v>
+        <v>3.34062744272108e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.522477352249361e-07</v>
+        <v>-0.0616287616955944</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.34062744272108e-06</v>
+        <v>0.2482320820112295</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0616287616955944</v>
+        <v>0.06527773693135039</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2482320820112295</v>
+        <v>1.710036683670568</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06527773693135039</v>
+        <v>1.766951479798184</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.624323905727603</v>
+        <v>3.86017385873291</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.766951479798184</v>
+        <v>3.030283884190475e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.86017385873291</v>
+        <v>68646383.91441004</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.030283884190475e-15</v>
+        <v>1.668897681978896e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>68646383.91441004</v>
+        <v>14.27968560916818</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.668897681978896e-06</v>
+        <v>0.000126663968337954</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>14.27968560916818</v>
+        <v>7.889306619321008</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000126663968337954</v>
+        <v>1.184737145923927</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.889306619321008</v>
+        <v>0.007883712184490963</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.184737145923927</v>
+        <v>2.956813631293057</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007883712184490963</v>
+        <v>0.9564994507847804</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.956813631293057</v>
+        <v>1.74974652502567</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9564994507847804</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.74974652502567</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2101248232529646</v>
       </c>
     </row>
@@ -3793,72 +3763,66 @@
         <v>6.919261134361353e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.272710365356381</v>
+        <v>3.538647840372007e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.795255261532564</v>
+        <v>3.336540713455059e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.538647840372007e-07</v>
+        <v>-0.04822281298585414</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.336540713455059e-06</v>
+        <v>0.2279796044563309</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04822281298585414</v>
+        <v>0.05421313426477332</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2279796044563309</v>
+        <v>1.713699674846018</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05421313426477332</v>
+        <v>1.745998802766619</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.631914941203034</v>
+        <v>3.846374036963055</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.745998802766619</v>
+        <v>3.052066681299172e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.846374036963055</v>
+        <v>69871724.57122043</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.052066681299172e-15</v>
+        <v>1.651926550324549e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>69871724.57122043</v>
+        <v>14.90036623614945</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.651926550324549e-06</v>
+        <v>0.0001289716313741412</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>14.90036623614945</v>
+        <v>7.089433545295167</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001289716313741412</v>
+        <v>1.493192913900984</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.089433545295167</v>
+        <v>0.006482122962052641</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.493192913900984</v>
+        <v>3.11009570151512</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006482122962052641</v>
+        <v>0.9566905945652164</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.11009570151512</v>
+        <v>1.750931431012468</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9566905945652164</v>
+        <v>19</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.750931431012468</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2039900433545958</v>
       </c>
     </row>
@@ -3873,72 +3837,66 @@
         <v>6.210482133786041e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8478047291655666</v>
+        <v>2.877280897082914e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.1642203726311524</v>
+        <v>3.333765466197329e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.877280897082914e-07</v>
+        <v>-0.03701385221660625</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.333765466197329e-06</v>
+        <v>0.2165932015332578</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03701385221660625</v>
+        <v>0.04823138146267516</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2165932015332578</v>
+        <v>1.720949877794849</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04823138146267516</v>
+        <v>1.71717652952386</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.639865979266721</v>
+        <v>3.92125762603079</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.71717652952386</v>
+        <v>2.936610140902599e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.92125762603079</v>
+        <v>75599792.19788171</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.936610140902599e-15</v>
+        <v>1.534978960238685e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>75599792.19788171</v>
+        <v>16.78369186768414</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.534978960238685e-06</v>
+        <v>0.0001339409000142481</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>16.78369186768414</v>
+        <v>7.674780078512794</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001339409000142481</v>
+        <v>1.31601228238163</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.674780078512794</v>
+        <v>0.007889420277882298</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.31601228238163</v>
+        <v>3.013887332287149</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007889420277882298</v>
+        <v>0.9559931585469502</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.013887332287149</v>
+        <v>1.747434863679549</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9559931585469502</v>
+        <v>22</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.747434863679549</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1993195893822044</v>
       </c>
     </row>
@@ -3953,72 +3911,66 @@
         <v>5.765677737509176e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5504277704966942</v>
+        <v>2.392525220565555e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8545679622815383</v>
+        <v>3.331856613614481e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.392525220565555e-07</v>
+        <v>-0.02683063037016134</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.331856613614481e-06</v>
+        <v>0.2085786818759516</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02683063037016134</v>
+        <v>0.04418777683113605</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2085786818759516</v>
+        <v>1.728462133266356</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04418777683113605</v>
+        <v>1.738535559289401</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.644901120171396</v>
+        <v>3.857803888597267</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.738535559289401</v>
+        <v>3.034008225023782e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.857803888597267</v>
+        <v>73189072.50400175</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.034008225023782e-15</v>
+        <v>1.588311116316122e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>73189072.50400175</v>
+        <v>16.25209083183808</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.588311116316122e-06</v>
+        <v>0.0001343048400967266</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>16.25209083183808</v>
+        <v>8.516462154480106</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001343048400967266</v>
+        <v>1.258918340282634</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.516462154480106</v>
+        <v>0.009741147193366639</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.258918340282634</v>
+        <v>2.868478473316106</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009741147193366639</v>
+        <v>0.9557812440253175</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.868478473316106</v>
+        <v>1.727507210248454</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9557812440253175</v>
+        <v>19</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.727507210248454</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2075262780514589</v>
       </c>
     </row>
@@ -4395,7 +4347,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.231648334566378</v>
+        <v>1.205115781314479</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.364725121173482</v>
@@ -4484,7 +4436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.219586595639729</v>
+        <v>1.196147278847798</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.223056816086771</v>
@@ -4573,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.226246913443686</v>
+        <v>1.204380152758159</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.264819801208942</v>
@@ -4662,7 +4614,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.227609338460195</v>
+        <v>1.207740876220239</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.31165559617797</v>
@@ -4751,7 +4703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.226875018317988</v>
+        <v>1.20535540542328</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.200893069715914</v>
@@ -4840,7 +4792,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.245918478387233</v>
+        <v>1.224476775936875</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.209938021445884</v>
@@ -4929,7 +4881,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.242135216668268</v>
+        <v>1.227454086795428</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.282766134629532</v>
@@ -5018,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.242710561653605</v>
+        <v>1.226727822465665</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.377379203976035</v>
@@ -5107,7 +5059,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.250870202927844</v>
+        <v>1.234209390708775</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.352451479194394</v>
@@ -5196,7 +5148,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.250140459143684</v>
+        <v>1.232425674600439</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.313505631191766</v>
@@ -5285,7 +5237,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.255152678062655</v>
+        <v>1.237036206081633</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.228387754900336</v>
@@ -5374,7 +5326,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.263354617201825</v>
+        <v>1.240628882313292</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.213106290449159</v>
@@ -5463,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.255290047496666</v>
+        <v>1.23632181672688</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.270192806464277</v>
@@ -5552,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.264890871066572</v>
+        <v>1.247502188521887</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.295834584001076</v>
@@ -5641,7 +5593,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.25911898100284</v>
+        <v>1.239810856976879</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.295934923735075</v>
@@ -5730,7 +5682,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.253869844967574</v>
+        <v>1.233724348002561</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.578729630569415</v>
@@ -5819,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.263159739180305</v>
+        <v>1.240641487183045</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.211621419096323</v>
@@ -5908,7 +5860,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.269304021376051</v>
+        <v>1.24551302169068</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.308556187528295</v>
@@ -5997,7 +5949,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.265524834594084</v>
+        <v>1.243546972631189</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.094084629084284</v>
@@ -6086,7 +6038,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.259582051643819</v>
+        <v>1.236987075967893</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.308745978857309</v>
@@ -6175,7 +6127,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.25703458232214</v>
+        <v>1.233751268452634</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.314217027286699</v>
@@ -6264,7 +6216,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.260771519377119</v>
+        <v>1.230551614611934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.282724767111716</v>
@@ -6353,7 +6305,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.263010345382892</v>
+        <v>1.235053037007769</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.156425547786331</v>
@@ -6442,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.250432669659148</v>
+        <v>1.225417354334914</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.327211985370877</v>
@@ -6531,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.252960094364949</v>
+        <v>1.228508181682412</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.23033997414556</v>
@@ -6620,7 +6572,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.263865119617208</v>
+        <v>1.232767340083101</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.15800155355729</v>
@@ -6709,7 +6661,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.251741670562571</v>
+        <v>1.229218664923097</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.563655401647105</v>
@@ -6798,7 +6750,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.257243825853461</v>
+        <v>1.235682717117608</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.255864701911652</v>
@@ -6887,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.261086077832529</v>
+        <v>1.235485457902093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.232057046524938</v>
@@ -6976,7 +6928,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.270815621814703</v>
+        <v>1.251162335684577</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.296514448718128</v>
@@ -7065,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.281639999857057</v>
+        <v>1.265859130179775</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.269656942048133</v>
@@ -7154,7 +7106,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.276000781872027</v>
+        <v>1.257170162744213</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.298502488320023</v>
@@ -7243,7 +7195,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.276640507261969</v>
+        <v>1.2589500862875</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.409362833871264</v>
@@ -7332,7 +7284,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.27627275310802</v>
+        <v>1.254053575598708</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.120653420772973</v>
@@ -7421,7 +7373,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.282177296831784</v>
+        <v>1.265187392251058</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.269456484441267</v>
@@ -7510,7 +7462,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.27956374819835</v>
+        <v>1.263142100347116</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.30365000141306</v>
@@ -7599,7 +7551,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.288878853207525</v>
+        <v>1.274318340994335</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.161995057040521</v>
@@ -7688,7 +7640,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.290746418321968</v>
+        <v>1.275876167860966</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.207556959319377</v>
@@ -7777,7 +7729,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.296732808216759</v>
+        <v>1.279969678853319</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.189205004653901</v>
@@ -7866,7 +7818,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.303054870889405</v>
+        <v>1.286735642605373</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.127707906208552</v>
@@ -7955,7 +7907,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.310803737421085</v>
+        <v>1.293719376600932</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.393440321335839</v>
@@ -8044,7 +7996,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.305232332778413</v>
+        <v>1.290095662668884</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.3884632002914</v>
@@ -8133,7 +8085,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.306935071379739</v>
+        <v>1.28835160027629</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.176246843480118</v>
@@ -8222,7 +8174,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.305898959980825</v>
+        <v>1.291675287996327</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.158427686637403</v>
@@ -8311,7 +8263,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.298002668041012</v>
+        <v>1.281348748417482</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.374048710348275</v>
@@ -8400,7 +8352,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.287491982859871</v>
+        <v>1.270502686853885</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.343781826650502</v>
@@ -8489,7 +8441,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.303011795216137</v>
+        <v>1.290769151749267</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.189433708326214</v>
@@ -8578,7 +8530,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.317007971189326</v>
+        <v>1.303616775970507</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.238757128321974</v>
@@ -8667,7 +8619,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.320321930363231</v>
+        <v>1.305330199847807</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.194884672051232</v>
@@ -8756,7 +8708,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.311822067660455</v>
+        <v>1.293556235083354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.141660091566364</v>
@@ -8845,7 +8797,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.298638970217401</v>
+        <v>1.28318773002206</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.302947672183106</v>
@@ -9131,7 +9083,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.602593094269206</v>
+        <v>1.627507413122561</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.790598011465643</v>
@@ -9220,7 +9172,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.602735874068502</v>
+        <v>1.626611624549276</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.577078169212446</v>
@@ -9309,7 +9261,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.612731841856108</v>
+        <v>1.636513074884008</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.700824564176239</v>
@@ -9398,7 +9350,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621251964070283</v>
+        <v>1.642534778518997</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.565598080585452</v>
@@ -9487,7 +9439,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623408050414445</v>
+        <v>1.636342457611617</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.804841768519676</v>
@@ -9576,7 +9528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630472716789493</v>
+        <v>1.639863370946191</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.17449202866875</v>
@@ -9665,7 +9617,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.642931734020072</v>
+        <v>1.651802280301035</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.491394138283646</v>
@@ -9754,7 +9706,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.636160354955025</v>
+        <v>1.646056338279144</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.888986676645715</v>
@@ -9843,7 +9795,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.640967984843679</v>
+        <v>1.646937556042222</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.913942182396024</v>
@@ -9932,7 +9884,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640784130133763</v>
+        <v>1.643517917948813</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.795985995026629</v>
@@ -10021,7 +9973,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.649197486695979</v>
+        <v>1.647229363122822</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.757135744644982</v>
@@ -10110,7 +10062,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.655863952468577</v>
+        <v>1.654810306859894</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.68497470971197</v>
@@ -10199,7 +10151,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656555136275733</v>
+        <v>1.654641568913386</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.037435121568216</v>
@@ -10288,7 +10240,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.665904469859408</v>
+        <v>1.66244996623477</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.960541695502234</v>
@@ -10377,7 +10329,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.664413890228519</v>
+        <v>1.663984177966115</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.830168813812202</v>
@@ -10466,7 +10418,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.659819097878811</v>
+        <v>1.659859556891774</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.978377362317839</v>
@@ -10555,7 +10507,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.650268652353043</v>
+        <v>1.65090985400878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.015866297004934</v>
@@ -10644,7 +10596,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.654039925426266</v>
+        <v>1.654513339248719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.752090369100928</v>
@@ -10733,7 +10685,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.65220264240215</v>
+        <v>1.646771204412889</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.512849757391965</v>
@@ -10822,7 +10774,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645154729859481</v>
+        <v>1.641336524719917</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.786533633946967</v>
@@ -10911,7 +10863,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.647383070544869</v>
+        <v>1.644308728780737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.68721125826753</v>
@@ -11000,7 +10952,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631443489399963</v>
+        <v>1.62762293448795</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.497744430828825</v>
@@ -11089,7 +11041,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.641149828220978</v>
+        <v>1.635327608399562</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.033454351819076</v>
@@ -11178,7 +11130,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.631742860845824</v>
+        <v>1.628469494954122</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.021169889185663</v>
@@ -11267,7 +11219,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.631446789624843</v>
+        <v>1.629185309387433</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.098098023013485</v>
@@ -11356,7 +11308,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.633925045872731</v>
+        <v>1.629348565118509</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.793044102063376</v>
@@ -11445,7 +11397,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.622376213690093</v>
+        <v>1.615362263364998</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.163672510747521</v>
@@ -11534,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621340142750399</v>
+        <v>1.614114977930563</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.165142694583167</v>
@@ -11623,7 +11575,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.604379829579006</v>
+        <v>1.593286397630367</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.131521467028104</v>
@@ -11712,7 +11664,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.605682162082301</v>
+        <v>1.594594685587487</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.19429104941815</v>
@@ -11801,7 +11753,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.595996269895148</v>
+        <v>1.584783963127556</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.999264345672636</v>
@@ -11890,7 +11842,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59587633705755</v>
+        <v>1.587063293115013</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.957860782753163</v>
@@ -11979,7 +11931,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.594693692931593</v>
+        <v>1.582287366079035</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.001989157979877</v>
@@ -12068,7 +12020,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575822768864341</v>
+        <v>1.562419634772786</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.564287876708025</v>
@@ -12157,7 +12109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.579673311836585</v>
+        <v>1.565396874138553</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.785592651308497</v>
@@ -12246,7 +12198,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566924232943115</v>
+        <v>1.550635449014743</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.722701208757596</v>
@@ -12335,7 +12287,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57780983366255</v>
+        <v>1.562093621562417</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.650990081926371</v>
@@ -12424,7 +12376,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.580891912810729</v>
+        <v>1.565312942651399</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.725412559015948</v>
@@ -12513,7 +12465,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.594070017675473</v>
+        <v>1.576271577520728</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.764317225514257</v>
@@ -12602,7 +12554,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.596023343731215</v>
+        <v>1.572688347785918</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.765586819711153</v>
@@ -12691,7 +12643,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570813525943652</v>
+        <v>1.553023781669989</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.602956500738368</v>
@@ -12780,7 +12732,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.57464160862006</v>
+        <v>1.559160475847214</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.665836684191233</v>
@@ -12869,7 +12821,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.568709219734904</v>
+        <v>1.55144718350393</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.820276459143658</v>
@@ -12958,7 +12910,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.580887209681083</v>
+        <v>1.56630386694782</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.619478033578517</v>
@@ -13047,7 +12999,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588529628126206</v>
+        <v>1.571088323113212</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.751210440380167</v>
@@ -13136,7 +13088,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.60036673652194</v>
+        <v>1.585095046442703</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.887939511503227</v>
@@ -13225,7 +13177,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610417284756958</v>
+        <v>1.599508969562317</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.867861562842834</v>
@@ -13314,7 +13266,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.618192691771047</v>
+        <v>1.608190960803872</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.638514578396417</v>
@@ -13403,7 +13355,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622948512118483</v>
+        <v>1.614401840980054</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.013258441089669</v>
@@ -13492,7 +13444,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.613012575196233</v>
+        <v>1.608846655692363</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.326019434437944</v>
@@ -13581,7 +13533,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.625879021838443</v>
+        <v>1.617864936362418</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.174538942555648</v>
@@ -13867,7 +13819,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.546460998579696</v>
+        <v>1.526068597503373</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.471598116614822</v>
@@ -13956,7 +13908,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555960476987577</v>
+        <v>1.530819341117905</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.440189104650533</v>
@@ -14045,7 +13997,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.552323139480267</v>
+        <v>1.528424637886723</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.433215362904837</v>
@@ -14134,7 +14086,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.552864537862414</v>
+        <v>1.527513531517113</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.398770386869081</v>
@@ -14223,7 +14175,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581650118914404</v>
+        <v>1.54151008229604</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.574889245055728</v>
@@ -14312,7 +14264,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605267263609223</v>
+        <v>1.55692949406217</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.708399789830843</v>
@@ -14401,7 +14353,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.603265414970085</v>
+        <v>1.561089212075493</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.518750801298051</v>
@@ -14490,7 +14442,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.587865630333736</v>
+        <v>1.549556636707969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.615525282514383</v>
@@ -14579,7 +14531,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.587224588563578</v>
+        <v>1.552691464530796</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.531033750275448</v>
@@ -14668,7 +14620,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.580109408127467</v>
+        <v>1.544742152682407</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.296321058863663</v>
@@ -14757,7 +14709,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584476575328548</v>
+        <v>1.541673949949047</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.018756998003102</v>
@@ -14846,7 +14798,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.576041697671166</v>
+        <v>1.533481152387139</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.031317385353996</v>
@@ -14935,7 +14887,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.56735704495737</v>
+        <v>1.522417792737512</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.069771769516551</v>
@@ -15024,7 +14976,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569297772313652</v>
+        <v>1.520000610995019</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.271267451070901</v>
@@ -15113,7 +15065,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569011435377224</v>
+        <v>1.523023713143422</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.417604344819637</v>
@@ -15202,7 +15154,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564302724971357</v>
+        <v>1.523158746777859</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.045672908591019</v>
@@ -15291,7 +15243,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544867495135025</v>
+        <v>1.507684827414714</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.01999158998589</v>
@@ -15380,7 +15332,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549026785439875</v>
+        <v>1.506802938168282</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.998278753696688</v>
@@ -15469,7 +15421,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.551676774622678</v>
+        <v>1.506196006218068</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.624778366721717</v>
@@ -15558,7 +15510,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54414215295303</v>
+        <v>1.494144247834609</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.834833870005821</v>
@@ -15647,7 +15599,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.53973922483281</v>
+        <v>1.487308567750165</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.970818949750628</v>
@@ -15736,7 +15688,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534603733109436</v>
+        <v>1.483525834837084</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.855588317967815</v>
@@ -15825,7 +15777,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532171252506559</v>
+        <v>1.481887121848195</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.697498771048795</v>
@@ -15914,7 +15866,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533297952581476</v>
+        <v>1.485371686445759</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.958069962884068</v>
@@ -16003,7 +15955,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.542041824385733</v>
+        <v>1.49601652929831</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.102411743840883</v>
@@ -16092,7 +16044,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53650755271614</v>
+        <v>1.494270188558727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.900674268378079</v>
@@ -16181,7 +16133,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.540506216870175</v>
+        <v>1.501854875068644</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.135660150398802</v>
@@ -16270,7 +16222,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.54160621443231</v>
+        <v>1.500645540446326</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.037917292441516</v>
@@ -16359,7 +16311,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534124581639967</v>
+        <v>1.494112515588552</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.106060925409614</v>
@@ -16448,7 +16400,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.535400636084015</v>
+        <v>1.494360291062535</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.971635878962529</v>
@@ -16537,7 +16489,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.545756125874921</v>
+        <v>1.500379252783523</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.740526983184619</v>
@@ -16626,7 +16578,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.556414498563818</v>
+        <v>1.5110777444472</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.408501200875903</v>
@@ -16715,7 +16667,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.561680758108777</v>
+        <v>1.51537472760006</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.382011989266919</v>
@@ -16804,7 +16756,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.560741235277577</v>
+        <v>1.517571541604813</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.005747247157019</v>
@@ -16893,7 +16845,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.556035900074948</v>
+        <v>1.516319483939201</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.000466169765964</v>
@@ -16982,7 +16934,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.552244624868588</v>
+        <v>1.512024475346427</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.33375307400957</v>
@@ -17071,7 +17023,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.560404857070523</v>
+        <v>1.518224947366648</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.172425348215201</v>
@@ -17160,7 +17112,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575622947004286</v>
+        <v>1.52334010395232</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.270871080602443</v>
@@ -17249,7 +17201,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.564363897932806</v>
+        <v>1.514352215910892</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.092180021671581</v>
@@ -17338,7 +17290,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.562736467966952</v>
+        <v>1.515860881758018</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.928532893959619</v>
@@ -17427,7 +17379,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.561292126175269</v>
+        <v>1.51825777173292</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.089166805510417</v>
@@ -17516,7 +17468,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.55943111714946</v>
+        <v>1.512256452677753</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.226928556452636</v>
@@ -17605,7 +17557,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.569907056362658</v>
+        <v>1.522674120739261</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.525915322856791</v>
@@ -17694,7 +17646,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.57077455687066</v>
+        <v>1.526995481753933</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.259647377900228</v>
@@ -17783,7 +17735,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.579053851509369</v>
+        <v>1.536528776376336</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.467641803292537</v>
@@ -17872,7 +17824,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.57657151669707</v>
+        <v>1.537476758336602</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.561241541609818</v>
@@ -17961,7 +17913,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575620396233624</v>
+        <v>1.532908191324871</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.168420567982951</v>
@@ -18050,7 +18002,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.572915465830459</v>
+        <v>1.530496443208209</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.370601756842683</v>
@@ -18139,7 +18091,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.573844098376763</v>
+        <v>1.532414451567897</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.303923663795633</v>
@@ -18228,7 +18180,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.574874132959645</v>
+        <v>1.53671623943383</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.016459350209138</v>
@@ -18317,7 +18269,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.582414833237753</v>
+        <v>1.543022541663425</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.400740607834817</v>
@@ -18603,7 +18555,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.64587319422298</v>
+        <v>1.64708679967274</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.951854590053134</v>
@@ -18692,7 +18644,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.650296777481156</v>
+        <v>1.64696762880512</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.959204902692559</v>
@@ -18781,7 +18733,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.655226405328854</v>
+        <v>1.644866551697755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.078900835790182</v>
@@ -18870,7 +18822,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669512030173909</v>
+        <v>1.658031136193131</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.994931599110536</v>
@@ -18959,7 +18911,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.666292005284891</v>
+        <v>1.638449864753965</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.218397501045521</v>
@@ -19048,7 +19000,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.667933142387216</v>
+        <v>1.640660578000317</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.643838975505747</v>
@@ -19137,7 +19089,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.657226641394235</v>
+        <v>1.629345000254311</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.436620193682953</v>
@@ -19226,7 +19178,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661072007678903</v>
+        <v>1.633526391228692</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.310991393791894</v>
@@ -19315,7 +19267,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.654771930795411</v>
+        <v>1.624760357510309</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.574615946963484</v>
@@ -19404,7 +19356,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.650212588044236</v>
+        <v>1.617512906957441</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.454561965836849</v>
@@ -19493,7 +19445,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.653192556012667</v>
+        <v>1.609758802968555</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.635391449118377</v>
@@ -19582,7 +19534,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.643071707716362</v>
+        <v>1.604568524625355</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.363674637340841</v>
@@ -19671,7 +19623,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632558408049799</v>
+        <v>1.596778863103155</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.329614410026916</v>
@@ -19760,7 +19712,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.639147768874601</v>
+        <v>1.596026413258591</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.574983064055877</v>
@@ -19849,7 +19801,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.635238995278193</v>
+        <v>1.59172142398862</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.506040346893303</v>
@@ -19938,7 +19890,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.640825645799244</v>
+        <v>1.60074034776924</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.625850673778927</v>
@@ -20027,7 +19979,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.641329178110165</v>
+        <v>1.610779304591649</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.454692125204278</v>
@@ -20116,7 +20068,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.645668980480279</v>
+        <v>1.618270347978439</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.479652945495671</v>
@@ -20205,7 +20157,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64415251543344</v>
+        <v>1.615889035826285</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.494897265139012</v>
@@ -20294,7 +20246,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645779159295789</v>
+        <v>1.616810847755223</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.317843480988676</v>
@@ -20383,7 +20335,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.648092912596865</v>
+        <v>1.616415575797117</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.47966561279409</v>
@@ -20472,7 +20424,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.644858426328797</v>
+        <v>1.611546636215</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.769796017483459</v>
@@ -20561,7 +20513,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638204699415757</v>
+        <v>1.608019879258279</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.473919672212805</v>
@@ -20650,7 +20602,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.643711790889361</v>
+        <v>1.615172878790744</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.599979981190629</v>
@@ -20739,7 +20691,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.641851588627328</v>
+        <v>1.617088641556828</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.47437315329644</v>
@@ -20828,7 +20780,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.646286259202003</v>
+        <v>1.622167564254366</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.689444564371286</v>
@@ -20917,7 +20869,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.645379427082818</v>
+        <v>1.612450930334408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.538397549854587</v>
@@ -21006,7 +20958,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65275243791455</v>
+        <v>1.61802788523868</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.597772311524035</v>
@@ -21095,7 +21047,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.65256994791024</v>
+        <v>1.623507486943324</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.566903149747752</v>
@@ -21184,7 +21136,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.659960864966219</v>
+        <v>1.62322544047172</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.548914108151947</v>
@@ -21273,7 +21225,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653687255663948</v>
+        <v>1.613155810422661</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.413673271006539</v>
@@ -21362,7 +21314,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.654789869312213</v>
+        <v>1.606971629108727</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.169647834566797</v>
@@ -21451,7 +21403,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.652039446067159</v>
+        <v>1.604327882302244</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.873343117063594</v>
@@ -21540,7 +21492,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650485486203473</v>
+        <v>1.602154986389809</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.603555396762447</v>
@@ -21629,7 +21581,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.636871233117222</v>
+        <v>1.594020398878194</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.4028665212781</v>
@@ -21718,7 +21670,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628241013674963</v>
+        <v>1.585349843359727</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.830967902081418</v>
@@ -21807,7 +21759,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.629752416998883</v>
+        <v>1.587255097343065</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.58274199099202</v>
@@ -21896,7 +21848,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.632927095518939</v>
+        <v>1.584377015348834</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.775899521732599</v>
@@ -21985,7 +21937,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.63101763819499</v>
+        <v>1.584969979744115</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.981724516635599</v>
@@ -22074,7 +22026,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632490428559012</v>
+        <v>1.58207645974378</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.545053634460538</v>
@@ -22163,7 +22115,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.63225437044964</v>
+        <v>1.585239292363818</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.691851129805134</v>
@@ -22252,7 +22204,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631788950216092</v>
+        <v>1.588696590028444</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.734358074748427</v>
@@ -22341,7 +22293,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.635248801552402</v>
+        <v>1.59144054005888</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.429140971576061</v>
@@ -22430,7 +22382,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635444665773015</v>
+        <v>1.590847690027226</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.728774295287561</v>
@@ -22519,7 +22471,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.63025586738771</v>
+        <v>1.594159240887369</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.699681593030526</v>
@@ -22608,7 +22560,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.627056546218721</v>
+        <v>1.593093108350697</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.725516633903392</v>
@@ -22697,7 +22649,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.622358803028465</v>
+        <v>1.588954896779101</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.272329592707043</v>
@@ -22786,7 +22738,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.623276555870365</v>
+        <v>1.59060915931892</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.587625802309677</v>
@@ -22875,7 +22827,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.613487448828123</v>
+        <v>1.586531385352291</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.590840257197746</v>
@@ -22964,7 +22916,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.628119543466818</v>
+        <v>1.600089212036696</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.764122344167154</v>
@@ -23053,7 +23005,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638826075043794</v>
+        <v>1.609476820146958</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.330506861842813</v>
@@ -23339,7 +23291,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.697330961821354</v>
+        <v>1.730213899787024</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.596827801345044</v>
@@ -23428,7 +23380,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688119817925649</v>
+        <v>1.72206475308918</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.52805057630208</v>
@@ -23517,7 +23469,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.688739393144952</v>
+        <v>1.721849033170969</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.461631470719301</v>
@@ -23606,7 +23558,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.765126459216352</v>
+        <v>1.786009625130415</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.28281311082232</v>
@@ -23695,7 +23647,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.793380161157275</v>
+        <v>1.8042562969572</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.701932662428004</v>
@@ -23784,7 +23736,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.795535828340553</v>
+        <v>1.800192359610316</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.483412583178284</v>
@@ -23873,7 +23825,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.788780492679259</v>
+        <v>1.794269701492268</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.501895463123954</v>
@@ -23962,7 +23914,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.772751519114925</v>
+        <v>1.783460024155179</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.589882582352768</v>
@@ -24051,7 +24003,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.774918627036201</v>
+        <v>1.783672242177454</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.759958855168144</v>
@@ -24140,7 +24092,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.781009039241247</v>
+        <v>1.790567070950349</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.440637550908437</v>
@@ -24229,7 +24181,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.773703477722318</v>
+        <v>1.775992538505971</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.320548616993404</v>
@@ -24318,7 +24270,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.76515197994086</v>
+        <v>1.77549252771362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.676417926787142</v>
@@ -24407,7 +24359,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.761251891330604</v>
+        <v>1.767244735035869</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.471148288582245</v>
@@ -24496,7 +24448,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.754454203162235</v>
+        <v>1.760770308399606</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.323991643104243</v>
@@ -24585,7 +24537,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.755174763241058</v>
+        <v>1.761691075191755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.270307609500167</v>
@@ -24674,7 +24626,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.742959813616314</v>
+        <v>1.748285529604166</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.570330674163754</v>
@@ -24763,7 +24715,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.692472821706568</v>
+        <v>1.706764630268281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.490178174183285</v>
@@ -24852,7 +24804,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.691450542794074</v>
+        <v>1.704180419368766</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.48103456143897</v>
@@ -24941,7 +24893,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.687120690941383</v>
+        <v>1.696883814380359</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.45823442500858</v>
@@ -25030,7 +24982,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.677182894163164</v>
+        <v>1.689122474155238</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.494940927984658</v>
@@ -25119,7 +25071,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.685133216961568</v>
+        <v>1.697919080002248</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.396215516692341</v>
@@ -25208,7 +25160,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.674070114048677</v>
+        <v>1.685306180940879</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.416718807947924</v>
@@ -25297,7 +25249,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68724618978982</v>
+        <v>1.69399720682393</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.441276206021629</v>
@@ -25386,7 +25338,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.683708418195199</v>
+        <v>1.688503737421062</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.333535756503797</v>
@@ -25475,7 +25427,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.672251672222023</v>
+        <v>1.676209061754886</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.385926934434144</v>
@@ -25564,7 +25516,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.671953434516393</v>
+        <v>1.673706277691757</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.344950686500606</v>
@@ -25653,7 +25605,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671553564980681</v>
+        <v>1.671448469608904</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.32035494864565</v>
@@ -25742,7 +25694,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668853623012644</v>
+        <v>1.663726833635712</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.327901971300114</v>
@@ -25831,7 +25783,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671218892191625</v>
+        <v>1.663962646296186</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.377826843882956</v>
@@ -25920,7 +25872,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.667720155347824</v>
+        <v>1.657190171526089</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.370630821145062</v>
@@ -26009,7 +25961,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.674768759822419</v>
+        <v>1.662700293144208</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.265717640889923</v>
@@ -26098,7 +26050,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722555130825769</v>
+        <v>1.692531143725551</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.31148410241768</v>
@@ -26187,7 +26139,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.718305418103046</v>
+        <v>1.686041331775838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.762330593202944</v>
@@ -26276,7 +26228,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.702531721326944</v>
+        <v>1.676367642328459</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.176854937870766</v>
@@ -26365,7 +26317,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.692952825016221</v>
+        <v>1.668221387040325</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.512582819139451</v>
@@ -26454,7 +26406,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688750849833587</v>
+        <v>1.661909639414002</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.008980249948969</v>
@@ -26543,7 +26495,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.682485251779737</v>
+        <v>1.651163861947663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.520460293796612</v>
@@ -26632,7 +26584,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.668530759336432</v>
+        <v>1.635453979513436</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.38017103959343</v>
@@ -26721,7 +26673,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.666775344939301</v>
+        <v>1.629252244168203</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.356433679983167</v>
@@ -26810,7 +26762,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677706313272622</v>
+        <v>1.635999860890381</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.341725117861216</v>
@@ -26899,7 +26851,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672946518730745</v>
+        <v>1.638714796852516</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.548793724373485</v>
@@ -26988,7 +26940,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.674117431113977</v>
+        <v>1.644167271742683</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.528678134961674</v>
@@ -27077,7 +27029,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659215745554625</v>
+        <v>1.635005864522332</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.088313802017459</v>
@@ -27166,7 +27118,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.651629547127279</v>
+        <v>1.628749527085758</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.155967746520689</v>
@@ -27255,7 +27207,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.651427217685469</v>
+        <v>1.628958248583931</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.094328597413161</v>
@@ -27344,7 +27296,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.660108404528</v>
+        <v>1.637423294750477</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.167820114091325</v>
@@ -27433,7 +27385,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.670085071705643</v>
+        <v>1.654292480085686</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.422414631588444</v>
@@ -27522,7 +27474,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.666379006823126</v>
+        <v>1.650798515483156</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.220908030415016</v>
@@ -27611,7 +27563,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.677006973239693</v>
+        <v>1.660382953587564</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.099237579476496</v>
@@ -27700,7 +27652,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.690946622405289</v>
+        <v>1.673016650509469</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.128879641220113</v>
@@ -27789,7 +27741,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.687986713165983</v>
+        <v>1.665699500763371</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.110114057373134</v>
@@ -28075,7 +28027,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.23700303148669</v>
+        <v>1.217396595811632</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.435196766558668</v>
@@ -28164,7 +28116,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.224635609586819</v>
+        <v>1.207338481458328</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.282975980074548</v>
@@ -28253,7 +28205,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.233590093577948</v>
+        <v>1.216963946867802</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.298893523368955</v>
@@ -28342,7 +28294,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.237322570902394</v>
+        <v>1.223355885277633</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.408566535547979</v>
@@ -28431,7 +28383,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.23455077523927</v>
+        <v>1.218452062194653</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.252584198742914</v>
@@ -28520,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.255460293505991</v>
+        <v>1.239498071522691</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.236075441428774</v>
@@ -28609,7 +28561,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.251617796211081</v>
+        <v>1.242159501367282</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.290347822898715</v>
@@ -28698,7 +28650,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.25051383350707</v>
+        <v>1.239837220285867</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.404404851411688</v>
@@ -28787,7 +28739,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.25726515802263</v>
+        <v>1.249124433187236</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.334947116046131</v>
@@ -28876,7 +28828,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.2551691042607</v>
+        <v>1.245837118545341</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.362971738517761</v>
@@ -28965,7 +28917,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.259220304208806</v>
+        <v>1.249128214483335</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.258940950993434</v>
@@ -29054,7 +29006,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.271583251382156</v>
+        <v>1.255441942682362</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.21621361033841</v>
@@ -29143,7 +29095,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.259530653895803</v>
+        <v>1.246475544107378</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.188398065399714</v>
@@ -29232,7 +29184,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.268458575625191</v>
+        <v>1.259218894606332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.267888606171709</v>
@@ -29321,7 +29273,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.264940686496073</v>
+        <v>1.251101121499731</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.265321313264445</v>
@@ -29410,7 +29362,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.258625473002008</v>
+        <v>1.242578467391624</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.535354720271656</v>
@@ -29499,7 +29451,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.280587166233126</v>
+        <v>1.26408749345954</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.247709510065253</v>
@@ -29588,7 +29540,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.288187518184017</v>
+        <v>1.270315087636066</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.334582733005901</v>
@@ -29677,7 +29629,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.287168339037635</v>
+        <v>1.273987358188128</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.146632005431319</v>
@@ -29766,7 +29718,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.278737383903215</v>
+        <v>1.265367599822803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.331586021852715</v>
@@ -29855,7 +29807,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.275304759519824</v>
+        <v>1.262766387390166</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.351996471802409</v>
@@ -29944,7 +29896,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.2779542673944</v>
+        <v>1.257959550035697</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.35736704446581</v>
@@ -30033,7 +29985,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.276031578177237</v>
+        <v>1.258005037507985</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.198410114145697</v>
@@ -30122,7 +30074,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.26704583653909</v>
+        <v>1.251457895253994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.412196754250423</v>
@@ -30211,7 +30163,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.269722030075963</v>
+        <v>1.253801783700104</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.289600981976906</v>
@@ -30300,7 +30252,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.273574515426006</v>
+        <v>1.251249912556958</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.291620935785037</v>
@@ -30389,7 +30341,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.2623086397716</v>
+        <v>1.245768244180528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.612663654186372</v>
@@ -30478,7 +30430,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.269851186463063</v>
+        <v>1.253910771450917</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.250449107468458</v>
@@ -30567,7 +30519,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.279809148828519</v>
+        <v>1.258772612617209</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.17579141683638</v>
@@ -30656,7 +30608,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.289260417783147</v>
+        <v>1.273386779395081</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.31082447329759</v>
@@ -30745,7 +30697,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.296090913359822</v>
+        <v>1.285278003714896</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.280129468348064</v>
@@ -30834,7 +30786,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.275977251916203</v>
+        <v>1.262117765379414</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.228326891665027</v>
@@ -30923,7 +30875,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.270933391263048</v>
+        <v>1.255513720173499</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.409717985662061</v>
@@ -31012,7 +30964,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.272354253268142</v>
+        <v>1.251408859442482</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.12308793884823</v>
@@ -31101,7 +31053,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.280866662521371</v>
+        <v>1.265003913642482</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.243619713916955</v>
@@ -31190,7 +31142,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.277309209280028</v>
+        <v>1.260747508050676</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.245930078185557</v>
@@ -31279,7 +31231,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.28244161994808</v>
+        <v>1.264968009552321</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.113662444779049</v>
@@ -31368,7 +31320,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.284018629310002</v>
+        <v>1.2654946938947</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.188605756186651</v>
@@ -31457,7 +31409,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.289846534205272</v>
+        <v>1.270883345653601</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.083378703657881</v>
@@ -31546,7 +31498,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.299175574910536</v>
+        <v>1.277129269854421</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.158470258665109</v>
@@ -31635,7 +31587,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.316471427585949</v>
+        <v>1.29302853401822</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.321354282810796</v>
@@ -31724,7 +31676,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.301525416371134</v>
+        <v>1.281261846896608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.241108607840534</v>
@@ -31813,7 +31765,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.292092560739464</v>
+        <v>1.268260249662047</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.111378424138567</v>
@@ -31902,7 +31854,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.291338540159466</v>
+        <v>1.271076541896095</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.102153096116412</v>
@@ -31991,7 +31943,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.279817773114432</v>
+        <v>1.257543200406752</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.203180165407271</v>
@@ -32080,7 +32032,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.274821856520204</v>
+        <v>1.252847784163844</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.251292114606941</v>
@@ -32169,7 +32121,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.293927202074337</v>
+        <v>1.274092580654735</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.205085825302062</v>
@@ -32258,7 +32210,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.306891619783017</v>
+        <v>1.288344115459065</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.294337934787062</v>
@@ -32347,7 +32299,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.296938883331867</v>
+        <v>1.280099789983589</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.202699443883473</v>
@@ -32436,7 +32388,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.289412660914744</v>
+        <v>1.269920372102952</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.13149358065633</v>
@@ -32525,7 +32477,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.284664818309622</v>
+        <v>1.265838030283939</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.276430415508571</v>
